--- a/biology/Botanique/Abrodictyum/Abrodictyum.xlsx
+++ b/biology/Botanique/Abrodictyum/Abrodictyum.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Abrodictyum est un genre de fougères de la famille des Hyménophyllacées.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les principales caractéristiques du genre sont :
 les limbes des frondes divisés de 2 à 5 fois
@@ -548,7 +562,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les espèces sont exclusivement tropicales ou équatoriales.
 </t>
@@ -579,11 +595,13 @@
           <t>Historique du genre et taxonomie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre a été créé par Karel Bořivoj Presl en 1843[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre a été créé par Karel Bořivoj Presl en 1843.
 Les quelques espèces du genre ont été reclassées dans d'autres genres de la famille des Hyménophyllacées par Konrad Hermann Heinrich Christ.
-Conrad Vernon Morton crée une section Abrodictyum du sous-genre Trichomanes subg. Trichomanes en 1968[2].
+Conrad Vernon Morton crée une section Abrodictyum du sous-genre Trichomanes subg. Trichomanes en 1968.
 Kunio Iwatsuki le classe comme sous-genre du genre Cephalomanes en 1984.
 Enfin, Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito reconnaissent à nouveau le genre en 2006 sur la base d'études de phylogénétique moléculaire.
 </t>
@@ -614,12 +632,49 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI[3] et Tropicos[4] à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Christensen (en général retranscrits par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité[5].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La liste des espèces a été constituée en premier à partir du document de Atsushi Ebihara, Jean-Yves Dubuisson, Kunio Iwatsuki, Sabine Hennequin et Motomi Ito, et a été complétée des indications des index IPNI et Tropicos à la date de juin 2010. Lorsque ces indications n'ont pas été suffisantes, en particulier pour les synonymies, elles ont été recherchées dans les documents et index historiques comme ceux de Conrad Vernon Morton, Christensen (en général retranscrits par l'IPNI) et tout autre document disponible, en particulier sur le site de la librairie numérique sur la biodiversité.
 Les 26 espèces du genre sont réparties en deux sous-genres.
-Sous-genre Abrodictyum
-Il est caractérisé par une localisation des espèces dans la zone Asie-Pacifique. Le rhizome peut être long et rampant. Par ailleurs, presque toutes ont une réduction du limbe hors nervures à trois cellules ou moins.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Abrodictyum</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abrodictyum</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sous-genre Abrodictyum</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Il est caractérisé par une localisation des espèces dans la zone Asie-Pacifique. Le rhizome peut être long et rampant. Par ailleurs, presque toutes ont une réduction du limbe hors nervures à trois cellules ou moins.
 			Abrodictyum caudatum (Brack.) Ebihara &amp; K.Iwats.
 			Abrodictyum pluma (Hook.) Ebihara &amp; K.Iwats.
 			Abrodictyum strictum (Menzie ex Hook. &amp; Grev.) Ebihara &amp; K.Iwats.
@@ -633,9 +688,43 @@
 Abrodictyum idoneum (C.V.Morton) Ebihara &amp; K.Iwats. (2006) - Malaisie occidentale (Synonyme : Trichomanes idoneum C.V.Morton)
 Abrodictyum pluma (Hook.) Ebihara &amp; K.Iwats. (2006) - Perak (Malaisie), Bornéo, Samoa, Nouvelle-Calédonie (Synonymes : Trichomanes elatum Bosch, Trichomanes pluma Hook.)
 Abrodictyum schlechteri (Brause) Ebihara &amp; K.Iwats. (2006) - Nouvelle-Guinée (Synonyme : Trichomanes schlechteri Brause)
-Abrodictyum strictum (Menzies ex Hook. &amp; Grev.) Ebihara &amp; K.Iwats. (2006) - Nouvelle-Zélande (Synonymes : Trichomanes leptophyllum A.Cunn., Trichomanes strictum Menzies ex Hook. &amp; Grev.)
-Sous-genre Pachychaetum
-Le rhizome des espèces de ce sous-genre est relativement épais, à peine rampant, couvert de poils sombres, avec des racines robustes et nombreuses. La paroi des cellules internes au limbe est épaisse et grossièrement percée.
+Abrodictyum strictum (Menzies ex Hook. &amp; Grev.) Ebihara &amp; K.Iwats. (2006) - Nouvelle-Zélande (Synonymes : Trichomanes leptophyllum A.Cunn., Trichomanes strictum Menzies ex Hook. &amp; Grev.)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Abrodictyum</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Abrodictyum</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Sous-genre Pachychaetum</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Le rhizome des espèces de ce sous-genre est relativement épais, à peine rampant, couvert de poils sombres, avec des racines robustes et nombreuses. La paroi des cellules internes au limbe est épaisse et grossièrement percée.
 La distribution de ce sous-genre est pan-tropicale.
 			Abrodictyum cellulosum (Klotzsch) Ebihara &amp; Dubuisson
 			Abrodictyum elongatum (A.Cunn.) Ebihara &amp; K.Iwats.
